--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1235941.152187052</v>
+        <v>-1236607.769623473</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146758</v>
+        <v>392548.0828146754</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14274251.15528153</v>
+        <v>14274251.15528154</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35.11593247269252</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="H11" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279463</v>
+        <v>36.42873081279468</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931284</v>
+        <v>23.1279849893129</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863217985</v>
+        <v>18.30111863217991</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.15405778268018</v>
+        <v>84.54481721446597</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>81.23766957162987</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.037534323606064</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>78.83557226606304</v>
+        <v>10.83321277868788</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411933</v>
+        <v>33.11619900411939</v>
       </c>
       <c r="V12" t="n">
-        <v>36.5374791892375</v>
+        <v>36.53747918923756</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084685</v>
+        <v>62.59314185084691</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330586</v>
+        <v>13.20147271330592</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786087</v>
+        <v>84.54481721446597</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479802</v>
+        <v>31.23138271479808</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258687</v>
+        <v>19.62677120258693</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828516</v>
+        <v>40.99757345828522</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207779</v>
+        <v>17.80801368207784</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800368</v>
+        <v>13.02983108800373</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38.03834418970698</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279463</v>
+        <v>36.42873081279467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863217991</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>19.73722555752697</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>10.1053922084161</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535309</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868782</v>
+        <v>10.83321277868788</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411933</v>
+        <v>33.11619900411939</v>
       </c>
       <c r="V15" t="n">
-        <v>36.5374791892375</v>
+        <v>36.53747918923756</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084685</v>
+        <v>62.59314185084691</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330586</v>
+        <v>13.20147271330592</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786087</v>
+        <v>81.23766957162987</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479802</v>
+        <v>31.23138271479808</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258687</v>
+        <v>19.62677120258693</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828516</v>
+        <v>40.99757345828522</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X16" t="n">
-        <v>17.80801368207779</v>
+        <v>17.80801368207784</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800368</v>
+        <v>13.02983108800373</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.65434805750084</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E17" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G17" t="n">
-        <v>83.39309993609683</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065045</v>
+        <v>11.46376063065051</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434314</v>
       </c>
       <c r="X17" t="n">
-        <v>24.34982197437364</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="18">
@@ -1929,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F18" t="n">
-        <v>84.54481721446594</v>
+        <v>68.42954067889559</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.60764204714844</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535309</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606064</v>
       </c>
       <c r="R18" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750084</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C20" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E20" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G20" t="n">
-        <v>83.39309993609683</v>
+        <v>83.39309993609686</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X20" t="n">
-        <v>24.34982197437364</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>16.57010772354241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>16.57010772354249</v>
       </c>
       <c r="G21" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750084</v>
+        <v>38.65434805750095</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084644</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894908</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130378</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968111</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609683</v>
+        <v>83.39309993609692</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434516</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437364</v>
+        <v>24.34982197437375</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811752</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>68.42954067889593</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606064</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>74.46707500250155</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>84.54481721446636</v>
       </c>
     </row>
     <row r="25">
@@ -2567,13 +2567,13 @@
         <v>190.358806069974</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9855486863898</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
         <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891992</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>14.39898314543814</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305152</v>
+        <v>9.572116788305154</v>
       </c>
       <c r="U26" t="n">
         <v>37.30912346611277</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.0658462480181</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.85943295535309</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606064</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.3113178652866</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813123</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U27" t="n">
         <v>24.38719716024464</v>
@@ -2694,7 +2694,7 @@
         <v>27.8084773453628</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697215</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>4.472470869431163</v>
@@ -2795,22 +2795,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9317160721878</v>
+        <v>124.9317160721879</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F29" t="n">
-        <v>190.358806069974</v>
+        <v>190.3588060699741</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9855486863898</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543814</v>
+        <v>14.3989831454382</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305152</v>
+        <v>9.572116788305211</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611277</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V29" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0560202557274</v>
+        <v>125.0560202557275</v>
       </c>
       <c r="X29" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4451238484104</v>
+        <v>169.4451238484105</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813123</v>
+        <v>203.7592752287424</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024464</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V30" t="n">
-        <v>27.8084773453628</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697215</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X30" t="n">
-        <v>4.472470869431163</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y30" t="n">
-        <v>30.89248700330212</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092332</v>
+        <v>22.50238087092338</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871217</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059121</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441046</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929588</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203087</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244128977</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="32">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.38071330444617</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>2.104210934813123</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024464</v>
+        <v>42.12574608916592</v>
       </c>
       <c r="V33" t="n">
         <v>27.8084773453628</v>
@@ -3174,7 +3174,7 @@
         <v>4.472470869431163</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="34">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C35" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G35" t="n">
         <v>182.5909004777625</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748535</v>
+        <v>13.91447525748546</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048516</v>
+        <v>84.64469183048527</v>
       </c>
       <c r="W35" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516172197</v>
+        <v>107.6902825455192</v>
       </c>
       <c r="V36" t="n">
-        <v>109.159775444011</v>
+        <v>4.413829136735501</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834473</v>
+        <v>30.46949179834485</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196379</v>
+        <v>52.42116716196391</v>
       </c>
       <c r="V37" t="n">
-        <v>8.873923405783046</v>
+        <v>8.87392340578316</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066847</v>
+        <v>54.07561531066858</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>113.970405602512</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E38" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G38" t="n">
         <v>182.5909004777625</v>
@@ -3521,7 +3521,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292554</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748535</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048516</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
         <v>123.5476225160393</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172197</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735387</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W39" t="n">
-        <v>30.46949179834473</v>
+        <v>123.6017250304496</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.27398439667799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196379</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783046</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066847</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991664</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C41" t="n">
-        <v>113.9704056025119</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H41" t="n">
-        <v>110.661561172316</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292469</v>
+        <v>4.305080760292583</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748532</v>
+        <v>13.91447525748544</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048513</v>
+        <v>84.64469183048524</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160392</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.85943295535309</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>126.537590202251</v>
       </c>
       <c r="S42" t="n">
-        <v>44.85216371776507</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9925489516171913</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735359</v>
+        <v>4.413829136735473</v>
       </c>
       <c r="W42" t="n">
-        <v>30.46949179834471</v>
+        <v>30.46949179834482</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196377</v>
+        <v>52.42116716196388</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783017</v>
+        <v>8.873923405783131</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066844</v>
+        <v>54.07561531066855</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991664</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C44" t="n">
-        <v>113.9704056025119</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D44" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E44" t="n">
         <v>135.2438202829693</v>
@@ -3989,13 +3989,13 @@
         <v>166.9641578613466</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
         <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292469</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748532</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048513</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W44" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160392</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="45">
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1390224876152</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85943295535309</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606064</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>67.33432547555664</v>
+        <v>106.6977335939021</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516171913</v>
+        <v>0.9925489516172481</v>
       </c>
       <c r="V45" t="n">
-        <v>4.413829136735359</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834471</v>
+        <v>30.46949179834476</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196377</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783017</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066844</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.3578937021335</v>
+        <v>164.4297272963018</v>
       </c>
       <c r="C11" t="n">
-        <v>214.3578937021335</v>
+        <v>164.4297272963018</v>
       </c>
       <c r="D11" t="n">
-        <v>214.3578937021335</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="E11" t="n">
-        <v>214.3578937021335</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="F11" t="n">
-        <v>214.3578937021335</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9590884349962</v>
+        <v>43.56028316785894</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785892</v>
+        <v>43.56028316785894</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157275</v>
+        <v>82.94899698275083</v>
       </c>
       <c r="K11" t="n">
-        <v>47.87345514991299</v>
+        <v>82.94899698275083</v>
       </c>
       <c r="L11" t="n">
-        <v>131.5728241922343</v>
+        <v>131.5728241922344</v>
       </c>
       <c r="M11" t="n">
-        <v>214.5521604557889</v>
+        <v>214.5521604557891</v>
       </c>
       <c r="N11" t="n">
-        <v>292.0317531153186</v>
+        <v>292.0317531153187</v>
       </c>
       <c r="O11" t="n">
-        <v>328.2841766533309</v>
+        <v>328.284176653331</v>
       </c>
       <c r="P11" t="n">
-        <v>328.2841766533309</v>
+        <v>328.284176653331</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533309</v>
+        <v>328.284176653331</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="S11" t="n">
         <v>314.8176678585579</v>
@@ -5072,19 +5072,19 @@
         <v>296.3316894422146</v>
       </c>
       <c r="U11" t="n">
-        <v>296.3316894422146</v>
+        <v>249.8285325634391</v>
       </c>
       <c r="V11" t="n">
-        <v>296.3316894422146</v>
+        <v>249.8285325634391</v>
       </c>
       <c r="W11" t="n">
-        <v>296.3316894422146</v>
+        <v>249.8285325634391</v>
       </c>
       <c r="X11" t="n">
-        <v>296.3316894422146</v>
+        <v>249.8285325634391</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.3578937021335</v>
+        <v>164.4297272963018</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.16239064429459</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157275</v>
+        <v>88.82183746971269</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825737</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L12" t="n">
-        <v>87.08116173089991</v>
+        <v>87.08116173089994</v>
       </c>
       <c r="M12" t="n">
         <v>170.7805307732212</v>
       </c>
       <c r="N12" t="n">
-        <v>254.4798998155425</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="R12" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="S12" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="T12" t="n">
-        <v>258.5473776800223</v>
+        <v>321.1381101686781</v>
       </c>
       <c r="U12" t="n">
-        <v>225.0966716152553</v>
+        <v>287.687404103911</v>
       </c>
       <c r="V12" t="n">
-        <v>188.1901269796618</v>
+        <v>250.7808594683175</v>
       </c>
       <c r="W12" t="n">
-        <v>124.9647311707256</v>
+        <v>187.5554636593813</v>
       </c>
       <c r="X12" t="n">
-        <v>111.6299102481945</v>
+        <v>174.22064273685</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.16239064429459</v>
+        <v>88.82183746971269</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.763585377157275</v>
+        <v>32.99316122774191</v>
       </c>
       <c r="C13" t="n">
-        <v>8.78623806780714</v>
+        <v>70.27087937439232</v>
       </c>
       <c r="D13" t="n">
-        <v>67.12574162850663</v>
+        <v>70.27087937439232</v>
       </c>
       <c r="E13" t="n">
-        <v>67.12574162850663</v>
+        <v>70.27087937439232</v>
       </c>
       <c r="F13" t="n">
-        <v>67.12574162850663</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1877109665482</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="H13" t="n">
-        <v>102.1877109665482</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="I13" t="n">
-        <v>141.2162694956225</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="J13" t="n">
-        <v>141.2162694956225</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="K13" t="n">
-        <v>141.2162694956225</v>
+        <v>134.8035932870332</v>
       </c>
       <c r="L13" t="n">
-        <v>141.2162694956225</v>
+        <v>218.5029623293545</v>
       </c>
       <c r="M13" t="n">
-        <v>141.2162694956225</v>
+        <v>218.5029623293545</v>
       </c>
       <c r="N13" t="n">
-        <v>141.2162694956225</v>
+        <v>301.494097068757</v>
       </c>
       <c r="O13" t="n">
-        <v>141.2162694956225</v>
+        <v>301.494097068757</v>
       </c>
       <c r="P13" t="n">
-        <v>224.9156385379438</v>
+        <v>301.494097068757</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687567</v>
+        <v>301.494097068757</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687567</v>
+        <v>301.494097068757</v>
       </c>
       <c r="S13" t="n">
-        <v>269.947245841688</v>
+        <v>269.9472458416882</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249336</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577962</v>
+        <v>164.7234191577965</v>
       </c>
       <c r="V13" t="n">
-        <v>123.311728795892</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875472</v>
+        <v>37.91292352875483</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059533</v>
+        <v>19.92503092059539</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>252.7804635907264</v>
+        <v>214.3578937021337</v>
       </c>
       <c r="C14" t="n">
-        <v>252.7804635907264</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="D14" t="n">
-        <v>252.7804635907264</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="E14" t="n">
-        <v>252.7804635907264</v>
+        <v>128.9590884349963</v>
       </c>
       <c r="F14" t="n">
-        <v>214.3578937021335</v>
+        <v>43.56028316785896</v>
       </c>
       <c r="G14" t="n">
-        <v>128.9590884349962</v>
+        <v>43.56028316785896</v>
       </c>
       <c r="H14" t="n">
-        <v>43.56028316785892</v>
+        <v>43.56028316785896</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157275</v>
+        <v>82.94899698275083</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157275</v>
+        <v>82.94899698275083</v>
       </c>
       <c r="L14" t="n">
-        <v>55.38741258664088</v>
+        <v>131.5728241922344</v>
       </c>
       <c r="M14" t="n">
-        <v>138.3667488501955</v>
+        <v>214.5521604557891</v>
       </c>
       <c r="N14" t="n">
-        <v>215.8463415097252</v>
+        <v>292.0317531153187</v>
       </c>
       <c r="O14" t="n">
-        <v>252.0987650477375</v>
+        <v>328.284176653331</v>
       </c>
       <c r="P14" t="n">
-        <v>254.4798998155425</v>
+        <v>328.284176653331</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.1792688578637</v>
+        <v>328.284176653331</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="T14" t="n">
-        <v>338.1792688578637</v>
+        <v>319.6932904415205</v>
       </c>
       <c r="U14" t="n">
-        <v>338.1792688578637</v>
+        <v>319.6932904415205</v>
       </c>
       <c r="V14" t="n">
-        <v>338.1792688578637</v>
+        <v>299.756698969271</v>
       </c>
       <c r="W14" t="n">
-        <v>338.1792688578637</v>
+        <v>299.756698969271</v>
       </c>
       <c r="X14" t="n">
-        <v>252.7804635907264</v>
+        <v>214.3578937021337</v>
       </c>
       <c r="Y14" t="n">
-        <v>252.7804635907264</v>
+        <v>214.3578937021337</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.7531231329503</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="C15" t="n">
-        <v>69.35431786581303</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="D15" t="n">
-        <v>69.35431786581303</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="E15" t="n">
-        <v>59.14685098862505</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="F15" t="n">
-        <v>59.14685098862505</v>
+        <v>92.16239064429462</v>
       </c>
       <c r="G15" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H15" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I15" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K15" t="n">
         <v>45.76878079825737</v>
       </c>
       <c r="L15" t="n">
-        <v>129.4681498405786</v>
+        <v>129.4681498405787</v>
       </c>
       <c r="M15" t="n">
-        <v>129.4681498405786</v>
+        <v>213.1675188829</v>
       </c>
       <c r="N15" t="n">
-        <v>213.1675188828999</v>
+        <v>296.8668879252213</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155425</v>
+        <v>296.8668879252213</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="R15" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="T15" t="n">
         <v>321.1381101686781</v>
@@ -5391,16 +5391,16 @@
         <v>287.687404103911</v>
       </c>
       <c r="V15" t="n">
-        <v>250.7808594683176</v>
+        <v>250.7808594683175</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5554636593814</v>
+        <v>187.5554636593813</v>
       </c>
       <c r="X15" t="n">
-        <v>174.2206427368502</v>
+        <v>174.22064273685</v>
       </c>
       <c r="Y15" t="n">
-        <v>154.7531231329503</v>
+        <v>92.16239064429462</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C16" t="n">
-        <v>44.04130352380775</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D16" t="n">
-        <v>44.04130352380775</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="E16" t="n">
-        <v>44.04130352380775</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="F16" t="n">
-        <v>44.04130352380775</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="G16" t="n">
-        <v>79.10327286184932</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="H16" t="n">
-        <v>79.10327286184932</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="I16" t="n">
-        <v>79.10327286184932</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="J16" t="n">
-        <v>79.10327286184932</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="K16" t="n">
-        <v>79.10327286184932</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2162694956225</v>
+        <v>65.10308893785671</v>
       </c>
       <c r="M16" t="n">
-        <v>141.2162694956225</v>
+        <v>148.802457980178</v>
       </c>
       <c r="N16" t="n">
-        <v>224.9156385379438</v>
+        <v>217.7947280264357</v>
       </c>
       <c r="O16" t="n">
-        <v>224.9156385379438</v>
+        <v>217.7947280264357</v>
       </c>
       <c r="P16" t="n">
-        <v>224.9156385379438</v>
+        <v>301.494097068757</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687567</v>
+        <v>301.494097068757</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687567</v>
+        <v>301.494097068757</v>
       </c>
       <c r="S16" t="n">
-        <v>269.947245841688</v>
+        <v>269.9472458416882</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249336</v>
+        <v>250.1222244249338</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577962</v>
+        <v>164.7234191577965</v>
       </c>
       <c r="V16" t="n">
-        <v>123.311728795892</v>
+        <v>123.3117287958922</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875472</v>
+        <v>37.91292352875483</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059533</v>
+        <v>19.92503092059539</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594533</v>
+        <v>224.7243025594538</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656696</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809268</v>
+        <v>207.4395829809273</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301152</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506394</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973349</v>
+        <v>18.34314156973355</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157275</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664088</v>
+        <v>139.0867816289622</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501955</v>
+        <v>222.0661178925168</v>
       </c>
       <c r="N17" t="n">
-        <v>215.8463415097252</v>
+        <v>299.5457105520465</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0987650477375</v>
+        <v>335.7981340900588</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0987650477375</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.0987650477375</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="R17" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="S17" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="T17" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="U17" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917684</v>
+        <v>335.690812791769</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196738</v>
+        <v>311.0950330196744</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771309</v>
+        <v>263.7690985771314</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="C18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="D18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="E18" t="n">
-        <v>167.3816583235891</v>
+        <v>75.88433353765787</v>
       </c>
       <c r="F18" t="n">
-        <v>81.98285305645176</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G18" t="n">
-        <v>81.98285305645176</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H18" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862505</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825737</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L18" t="n">
-        <v>129.4681498405786</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="M18" t="n">
-        <v>213.1675188828999</v>
+        <v>174.1623234617999</v>
       </c>
       <c r="N18" t="n">
-        <v>254.4798998155425</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="O18" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="R18" t="n">
-        <v>252.7804635907264</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="S18" t="n">
-        <v>252.7804635907264</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="T18" t="n">
-        <v>252.7804635907264</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="U18" t="n">
-        <v>167.3816583235891</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="V18" t="n">
-        <v>167.3816583235891</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="W18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="X18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="Y18" t="n">
-        <v>167.3816583235891</v>
+        <v>161.2831388047952</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594533</v>
+        <v>224.7243025594532</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656689</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809268</v>
+        <v>207.4395829809266</v>
       </c>
       <c r="E20" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301148</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506389</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973346</v>
+        <v>18.34314156973353</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157275</v>
+        <v>9.144720144962385</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157275</v>
+        <v>9.144720144962385</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157275</v>
+        <v>9.144720144962385</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664088</v>
+        <v>57.76854735444599</v>
       </c>
       <c r="M20" t="n">
-        <v>138.3667488501955</v>
+        <v>140.7478836180006</v>
       </c>
       <c r="N20" t="n">
-        <v>215.8463415097252</v>
+        <v>218.2274762775303</v>
       </c>
       <c r="O20" t="n">
-        <v>252.0987650477375</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0987650477375</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.0987650477375</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="R20" t="n">
-        <v>252.0987650477375</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="S20" t="n">
-        <v>252.0987650477375</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="T20" t="n">
-        <v>254.4798998155425</v>
+        <v>254.4798998155426</v>
       </c>
       <c r="U20" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917684</v>
+        <v>335.6908127917685</v>
       </c>
       <c r="X20" t="n">
         <v>311.0950330196738</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>161.2831388047951</v>
+        <v>75.88433353765787</v>
       </c>
       <c r="C21" t="n">
-        <v>144.5456562557624</v>
+        <v>75.88433353765787</v>
       </c>
       <c r="D21" t="n">
-        <v>144.5456562557624</v>
+        <v>75.88433353765787</v>
       </c>
       <c r="E21" t="n">
-        <v>144.5456562557624</v>
+        <v>75.88433353765787</v>
       </c>
       <c r="F21" t="n">
-        <v>144.5456562557624</v>
+        <v>59.14685098862505</v>
       </c>
       <c r="G21" t="n">
         <v>59.14685098862505</v>
@@ -5829,52 +5829,52 @@
         <v>59.14685098862505</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K21" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L21" t="n">
-        <v>90.46295441947855</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M21" t="n">
-        <v>174.1623234617998</v>
+        <v>90.46295441947859</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1623234617998</v>
+        <v>174.1623234617999</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4798998155425</v>
+        <v>257.8616925041212</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578639</v>
       </c>
       <c r="Q21" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="R21" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="S21" t="n">
-        <v>332.0807493390698</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="T21" t="n">
-        <v>246.6819440719324</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="U21" t="n">
-        <v>161.2831388047951</v>
+        <v>332.0807493390699</v>
       </c>
       <c r="V21" t="n">
-        <v>161.2831388047951</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="W21" t="n">
-        <v>161.2831388047951</v>
+        <v>246.6819440719325</v>
       </c>
       <c r="X21" t="n">
-        <v>161.2831388047951</v>
+        <v>161.2831388047952</v>
       </c>
       <c r="Y21" t="n">
-        <v>161.2831388047951</v>
+        <v>75.88433353765787</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157277</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594545</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656695</v>
+        <v>209.8024792656702</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809273</v>
+        <v>207.4395829809278</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301155</v>
+        <v>171.0294620301159</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506397</v>
+        <v>102.57859605064</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973346</v>
+        <v>18.34314156973361</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="I23" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="J23" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="K23" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664088</v>
+        <v>55.38741258664091</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501955</v>
+        <v>138.3667488501956</v>
       </c>
       <c r="N23" t="n">
         <v>215.8463415097252</v>
@@ -6014,25 +6014,25 @@
         <v>252.0987650477375</v>
       </c>
       <c r="S23" t="n">
-        <v>252.0987650477375</v>
+        <v>323.7716912337969</v>
       </c>
       <c r="T23" t="n">
-        <v>252.0987650477375</v>
+        <v>323.7716912337969</v>
       </c>
       <c r="U23" t="n">
-        <v>335.7981340900587</v>
+        <v>323.7716912337969</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578655</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917685</v>
+        <v>335.69081279177</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196739</v>
+        <v>311.0950330196753</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.769098577131</v>
+        <v>263.7690985771323</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>262.9600011785693</v>
+        <v>246.6819440719337</v>
       </c>
       <c r="C24" t="n">
-        <v>177.5611959114319</v>
+        <v>246.6819440719337</v>
       </c>
       <c r="D24" t="n">
-        <v>92.16239064429459</v>
+        <v>246.6819440719337</v>
       </c>
       <c r="E24" t="n">
-        <v>6.763585377157275</v>
+        <v>246.6819440719337</v>
       </c>
       <c r="F24" t="n">
-        <v>6.763585377157275</v>
+        <v>246.6819440719337</v>
       </c>
       <c r="G24" t="n">
-        <v>6.763585377157275</v>
+        <v>161.283138804796</v>
       </c>
       <c r="H24" t="n">
-        <v>6.763585377157275</v>
+        <v>75.88433353765826</v>
       </c>
       <c r="I24" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="K24" t="n">
-        <v>6.763585377157275</v>
+        <v>45.7687807982574</v>
       </c>
       <c r="L24" t="n">
-        <v>90.46295441947855</v>
+        <v>129.4681498405791</v>
       </c>
       <c r="M24" t="n">
-        <v>174.1623234617998</v>
+        <v>213.1675188829008</v>
       </c>
       <c r="N24" t="n">
-        <v>174.1623234617998</v>
+        <v>254.4798998155438</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578655</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578637</v>
+        <v>338.1792688578655</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="R24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="S24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="T24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="U24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="V24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="W24" t="n">
-        <v>338.1792688578637</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="X24" t="n">
-        <v>262.9600011785693</v>
+        <v>332.0807493390715</v>
       </c>
       <c r="Y24" t="n">
-        <v>262.9600011785693</v>
+        <v>246.6819440719337</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157275</v>
+        <v>6.763585377157309</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618493</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112822</v>
+        <v>886.2687840112817</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131126</v>
+        <v>760.0751314131121</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488735</v>
+        <v>599.834254148873</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559704</v>
+        <v>407.5526318559699</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616367</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563378</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460356</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994712</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432939</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411874</v>
+        <v>930.4316025411877</v>
       </c>
       <c r="N26" t="n">
         <v>1218.623234335056</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.587697007408</v>
+        <v>1465.587697007407</v>
       </c>
       <c r="P26" t="n">
         <v>1663.092768286574</v>
@@ -6251,10 +6251,10 @@
         <v>1804.829217230178</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810543</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973871</v>
       </c>
       <c r="U26" t="n">
         <v>1742.930001674768</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>530.8676207449133</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="C27" t="n">
-        <v>530.8676207449133</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="D27" t="n">
-        <v>370.087504505945</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5243006273595</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607133</v>
       </c>
       <c r="J27" t="n">
         <v>36.09658434460356</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992851</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8233632992851</v>
+        <v>795.7248437804911</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8233632992851</v>
+        <v>642.8851287650501</v>
       </c>
       <c r="T27" t="n">
-        <v>799.6978977085648</v>
+        <v>425.7693161338859</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0643652234693</v>
+        <v>401.1357836487903</v>
       </c>
       <c r="V27" t="n">
-        <v>746.9749941675473</v>
+        <v>373.0464125928683</v>
       </c>
       <c r="W27" t="n">
-        <v>692.5667719382825</v>
+        <v>103.6478433231595</v>
       </c>
       <c r="X27" t="n">
-        <v>688.0491245954228</v>
+        <v>99.13019598029979</v>
       </c>
       <c r="Y27" t="n">
-        <v>677.3987785711943</v>
+        <v>88.47984995607133</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460356</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460356</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="D28" t="n">
-        <v>83.44727448887872</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="E28" t="n">
-        <v>153.899933823115</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="F28" t="n">
-        <v>227.0743595611919</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="G28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="H28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="I28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="J28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="K28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="L28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246694</v>
+        <v>70.9678720206242</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246694</v>
+        <v>175.9982751607226</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246694</v>
+        <v>261.2184455169715</v>
       </c>
       <c r="R28" t="n">
         <v>270.7780407246694</v>
@@ -6440,34 +6440,34 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112819</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131123</v>
+        <v>760.0751314131129</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488732</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559702</v>
+        <v>407.5526318559706</v>
       </c>
       <c r="G29" t="n">
-        <v>199.486421061637</v>
+        <v>199.4864210616375</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563378</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
         <v>171.8183046963237</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994712</v>
+        <v>377.4043607994711</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432939</v>
+        <v>636.7402271432937</v>
       </c>
       <c r="M29" t="n">
         <v>930.4316025411874</v>
@@ -6479,25 +6479,25 @@
         <v>1465.587697007408</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.092768286574</v>
+        <v>1663.092768286575</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.292413200209</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.829217230178</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S29" t="n">
         <v>1790.284789810544</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973871</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674767</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.799355170613</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W29" t="n">
         <v>1507.480142791091</v>
@@ -6506,7 +6506,7 @@
         <v>1359.053606705569</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.896915949598</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>478.3087393419199</v>
+        <v>473.7067944359117</v>
       </c>
       <c r="C30" t="n">
-        <v>478.3087393419199</v>
+        <v>473.7067944359117</v>
       </c>
       <c r="D30" t="n">
-        <v>478.3087393419199</v>
+        <v>473.7067944359117</v>
       </c>
       <c r="E30" t="n">
-        <v>304.7455354633344</v>
+        <v>473.7067944359117</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3178191805785</v>
+        <v>313.2790781531558</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3178191805785</v>
+        <v>163.0385860094811</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3178191805785</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10177976570365</v>
+        <v>75.10177976570367</v>
       </c>
       <c r="L30" t="n">
         <v>193.8356208840661</v>
@@ -6570,22 +6570,22 @@
         <v>801.8233632992851</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085648</v>
+        <v>596.0059135732827</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234693</v>
+        <v>571.372381088187</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9749941675473</v>
+        <v>543.2830100322649</v>
       </c>
       <c r="W30" t="n">
-        <v>692.5667719382825</v>
+        <v>488.874787803</v>
       </c>
       <c r="X30" t="n">
-        <v>688.0491245954228</v>
+        <v>484.3571404601402</v>
       </c>
       <c r="Y30" t="n">
-        <v>656.844592268855</v>
+        <v>473.7067944359117</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="N31" t="n">
-        <v>36.09658434460356</v>
+        <v>96.4055299232401</v>
       </c>
       <c r="O31" t="n">
-        <v>36.09658434460356</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P31" t="n">
-        <v>175.9982751607226</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.2184455169715</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246694</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772721</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401891</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527232</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8643667704904</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685817</v>
+        <v>49.6115753368583</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837021</v>
+        <v>40.44085630837028</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112822</v>
+        <v>886.2687840112829</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131126</v>
+        <v>760.0751314131135</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488735</v>
+        <v>599.8342541488744</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559704</v>
+        <v>407.5526318559711</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616379</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563378</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994714</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432943</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411877</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.623234335056</v>
+        <v>1218.623234335057</v>
       </c>
       <c r="O32" t="n">
         <v>1465.587697007408</v>
@@ -6719,31 +6719,31 @@
         <v>1663.092768286574</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.292413200209</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.829217230178</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S32" t="n">
         <v>1790.284789810544</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.615984973871</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V32" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.896915949598</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C33" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D33" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10177976570365</v>
+        <v>75.10177976570367</v>
       </c>
       <c r="L33" t="n">
         <v>193.8356208840661</v>
@@ -6804,25 +6804,25 @@
         <v>801.8233632992851</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992851</v>
+        <v>608.4195893444119</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085648</v>
+        <v>391.3037767132477</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0643652234693</v>
+        <v>348.7525180373225</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9749941675473</v>
+        <v>320.6631469814005</v>
       </c>
       <c r="W33" t="n">
-        <v>477.5764248978386</v>
+        <v>51.2645777116918</v>
       </c>
       <c r="X33" t="n">
-        <v>473.0587775549788</v>
+        <v>46.74693036883204</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.4180844903065</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09658434460356</v>
+        <v>60.16974026622076</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09658434460356</v>
+        <v>127.1509556523562</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09658434460356</v>
+        <v>197.6036149865925</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09658434460356</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09658434460356</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="H34" t="n">
-        <v>82.69056256868622</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3608329231965</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="J34" t="n">
-        <v>222.4180914867283</v>
+        <v>270.7780407246694</v>
       </c>
       <c r="K34" t="n">
         <v>270.7780407246694</v>
@@ -6895,13 +6895,13 @@
         <v>127.8643667704904</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685817</v>
+        <v>49.61157533685819</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837021</v>
+        <v>40.44085630837022</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358911</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151717</v>
+        <v>737.7194519151706</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034944</v>
+        <v>635.1567571034932</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257477</v>
+        <v>498.5468376257463</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193369</v>
+        <v>329.8961731193355</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114961</v>
+        <v>145.4609201114945</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198417</v>
+        <v>33.68156539198429</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K35" t="n">
-        <v>416.9621788753963</v>
+        <v>416.962178875396</v>
       </c>
       <c r="L35" t="n">
-        <v>699.4587469457601</v>
+        <v>465.5860060848796</v>
       </c>
       <c r="M35" t="n">
-        <v>1016.310824070195</v>
+        <v>548.5653423484342</v>
       </c>
       <c r="N35" t="n">
-        <v>1327.663157590605</v>
+        <v>765.2111440523524</v>
       </c>
       <c r="O35" t="n">
-        <v>1363.915581128617</v>
+        <v>1035.336308451245</v>
       </c>
       <c r="P35" t="n">
-        <v>1363.915581128617</v>
+        <v>1256.002081456952</v>
       </c>
       <c r="Q35" t="n">
-        <v>1466.649948372315</v>
+        <v>1402.362428097129</v>
       </c>
       <c r="R35" t="n">
-        <v>1466.649948372315</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="S35" t="n">
-        <v>1466.649948372315</v>
+        <v>1452.965642266196</v>
       </c>
       <c r="T35" t="n">
         <v>1466.649948372315</v>
@@ -6974,13 +6974,13 @@
         <v>1367.095234142041</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805037</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.33299896744629</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="C36" t="n">
-        <v>29.33299896744629</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="D36" t="n">
-        <v>29.33299896744629</v>
+        <v>490.2659207936653</v>
       </c>
       <c r="E36" t="n">
-        <v>29.33299896744629</v>
+        <v>316.7027169150797</v>
       </c>
       <c r="F36" t="n">
-        <v>29.33299896744629</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="G36" t="n">
-        <v>29.33299896744629</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K36" t="n">
         <v>68.33819438854638</v>
@@ -7047,19 +7047,19 @@
         <v>795.059777922128</v>
       </c>
       <c r="U36" t="n">
-        <v>794.0572032235248</v>
+        <v>686.2817147448359</v>
       </c>
       <c r="V36" t="n">
-        <v>683.7948037851298</v>
+        <v>681.8233014754061</v>
       </c>
       <c r="W36" t="n">
-        <v>653.0175393423574</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="X36" t="n">
-        <v>433.5095449590538</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="Y36" t="n">
-        <v>207.8688518943814</v>
+        <v>651.0460370326335</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="L37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="M37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="O37" t="n">
-        <v>29.33299896744629</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="P37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032662</v>
+        <v>92.91839161032685</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458617</v>
+        <v>83.95483261458628</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358903</v>
+        <v>852.8410737358909</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151712</v>
+        <v>737.7194519151717</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034939</v>
+        <v>635.1567571034943</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257469</v>
+        <v>498.5468376257473</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193361</v>
+        <v>329.8961731193365</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198415</v>
+        <v>33.68156539198423</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K38" t="n">
-        <v>416.9621788753963</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L38" t="n">
-        <v>699.4587469457601</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M38" t="n">
-        <v>782.4380832093148</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N38" t="n">
-        <v>1093.790416729725</v>
+        <v>1327.663157590604</v>
       </c>
       <c r="O38" t="n">
-        <v>1130.042840267737</v>
+        <v>1363.915581128617</v>
       </c>
       <c r="P38" t="n">
-        <v>1264.907789869508</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="Q38" t="n">
-        <v>1411.268136509685</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.965642266195</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266196</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V38" t="n">
         <v>1367.095234142041</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805029</v>
+        <v>992.0856682805036</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>552.736193395824</v>
+        <v>350.5408314891704</v>
       </c>
       <c r="C39" t="n">
-        <v>363.3239191287877</v>
+        <v>350.5408314891704</v>
       </c>
       <c r="D39" t="n">
-        <v>363.3239191287877</v>
+        <v>189.7607152502022</v>
       </c>
       <c r="E39" t="n">
         <v>189.7607152502022</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854637</v>
+        <v>68.33819438854638</v>
       </c>
       <c r="L39" t="n">
         <v>187.0720355069089</v>
@@ -7275,28 +7275,28 @@
         <v>795.059777922128</v>
       </c>
       <c r="R39" t="n">
-        <v>795.059777922128</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="S39" t="n">
-        <v>795.059777922128</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="T39" t="n">
-        <v>795.059777922128</v>
+        <v>659.3878996876231</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235248</v>
+        <v>658.3853249890198</v>
       </c>
       <c r="V39" t="n">
-        <v>789.5987899540951</v>
+        <v>653.92691171959</v>
       </c>
       <c r="W39" t="n">
-        <v>758.8215255113226</v>
+        <v>529.0766844161055</v>
       </c>
       <c r="X39" t="n">
-        <v>758.8215255113226</v>
+        <v>529.0766844161055</v>
       </c>
       <c r="Y39" t="n">
-        <v>731.272046322759</v>
+        <v>529.0766844161055</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H40" t="n">
-        <v>99.08767891807007</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="L40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032661</v>
+        <v>92.91839161032674</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458615</v>
+        <v>83.95483261458622</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358906</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151705</v>
+        <v>737.7194519151714</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034933</v>
+        <v>635.1567571034941</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257465</v>
+        <v>498.5468376257472</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193358</v>
+        <v>329.8961731193364</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114949</v>
+        <v>145.4609201114954</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198412</v>
+        <v>33.68156539198426</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753963</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L41" t="n">
-        <v>465.5860060848799</v>
+        <v>646.9270591367244</v>
       </c>
       <c r="M41" t="n">
-        <v>687.7315513928207</v>
+        <v>729.9063954002791</v>
       </c>
       <c r="N41" t="n">
-        <v>765.2111440523504</v>
+        <v>1041.258728920689</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451243</v>
+        <v>1311.383893319581</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456951</v>
+        <v>1311.383893319581</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097127</v>
+        <v>1457.744239959758</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853637</v>
+        <v>1457.744239959758</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805032</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>713.5163096347923</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="C42" t="n">
-        <v>524.104035367756</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="D42" t="n">
-        <v>363.3239191287877</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="E42" t="n">
-        <v>189.7607152502022</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="F42" t="n">
-        <v>29.33299896744628</v>
+        <v>231.9567567225888</v>
       </c>
       <c r="G42" t="n">
-        <v>29.33299896744628</v>
+        <v>81.71626457891406</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744628</v>
+        <v>81.71626457891406</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744628</v>
+        <v>81.71626457891406</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854637</v>
+        <v>68.33819438854638</v>
       </c>
       <c r="L42" t="n">
         <v>187.0720355069089</v>
@@ -7512,28 +7512,28 @@
         <v>795.059777922128</v>
       </c>
       <c r="R42" t="n">
-        <v>795.059777922128</v>
+        <v>667.2440302430865</v>
       </c>
       <c r="S42" t="n">
-        <v>749.7545620455976</v>
+        <v>667.2440302430865</v>
       </c>
       <c r="T42" t="n">
-        <v>749.7545620455976</v>
+        <v>667.2440302430865</v>
       </c>
       <c r="U42" t="n">
-        <v>748.7519873469944</v>
+        <v>427.620150717547</v>
       </c>
       <c r="V42" t="n">
-        <v>744.2935740775647</v>
+        <v>423.1617374481172</v>
       </c>
       <c r="W42" t="n">
-        <v>713.5163096347923</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="X42" t="n">
-        <v>713.5163096347923</v>
+        <v>392.3844730053447</v>
       </c>
       <c r="Y42" t="n">
-        <v>713.5163096347923</v>
+        <v>392.3844730053447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G43" t="n">
-        <v>120.4403491515817</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4403491515817</v>
+        <v>75.03809343024911</v>
       </c>
       <c r="I43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="J43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="K43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="L43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="M43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="N43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="O43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="P43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4403491515817</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="R43" t="n">
-        <v>132.6138107855569</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="S43" t="n">
-        <v>133.4971554498839</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032655</v>
+        <v>92.91839161032679</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458612</v>
+        <v>83.95483261458625</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X43" t="n">
-        <v>43.50547897416639</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.40835974901988</v>
+        <v>29.3329989674463</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358907</v>
       </c>
       <c r="C44" t="n">
-        <v>737.719451915171</v>
+        <v>737.7194519151717</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034946</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257468</v>
+        <v>498.5468376257476</v>
       </c>
       <c r="F44" t="n">
-        <v>329.896173119336</v>
+        <v>329.8961731193368</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114952</v>
+        <v>145.4609201114959</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198412</v>
+        <v>33.6815653919842</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J44" t="n">
-        <v>188.2154210457076</v>
+        <v>157.7964095044018</v>
       </c>
       <c r="K44" t="n">
-        <v>416.9621788753963</v>
+        <v>386.5431673340904</v>
       </c>
       <c r="L44" t="n">
-        <v>699.4587469457601</v>
+        <v>435.166994543574</v>
       </c>
       <c r="M44" t="n">
-        <v>921.604292253701</v>
+        <v>518.1463308071286</v>
       </c>
       <c r="N44" t="n">
-        <v>999.0838849132307</v>
+        <v>829.4986643275384</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451243</v>
+        <v>1099.623828726431</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.002081456951</v>
+        <v>1320.289601732138</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097127</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853637</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805025</v>
+        <v>992.0856682805033</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>684.7085358151987</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="C45" t="n">
-        <v>684.7085358151987</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="D45" t="n">
-        <v>523.9284195762305</v>
+        <v>490.2659207936653</v>
       </c>
       <c r="E45" t="n">
-        <v>350.3652156976449</v>
+        <v>316.7027169150797</v>
       </c>
       <c r="F45" t="n">
-        <v>189.937499414889</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="G45" t="n">
-        <v>189.937499414889</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="H45" t="n">
-        <v>189.937499414889</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I45" t="n">
-        <v>81.71626457891405</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854637</v>
+        <v>68.33819438854638</v>
       </c>
       <c r="L45" t="n">
         <v>187.0720355069089</v>
@@ -7746,31 +7746,31 @@
         <v>795.059777922128</v>
       </c>
       <c r="Q45" t="n">
-        <v>788.961258403334</v>
+        <v>795.059777922128</v>
       </c>
       <c r="R45" t="n">
-        <v>788.961258403334</v>
+        <v>795.059777922128</v>
       </c>
       <c r="S45" t="n">
-        <v>788.961258403334</v>
+        <v>795.059777922128</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9467882260041</v>
+        <v>687.284289443439</v>
       </c>
       <c r="U45" t="n">
-        <v>719.9442135274008</v>
+        <v>686.2817147448357</v>
       </c>
       <c r="V45" t="n">
-        <v>715.4858002579712</v>
+        <v>681.823301475406</v>
       </c>
       <c r="W45" t="n">
-        <v>684.7085358151987</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="X45" t="n">
-        <v>684.7085358151987</v>
+        <v>651.0460370326335</v>
       </c>
       <c r="Y45" t="n">
-        <v>684.7085358151987</v>
+        <v>651.0460370326335</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.50547897416639</v>
+        <v>62.40835974901978</v>
       </c>
       <c r="C46" t="n">
-        <v>43.50547897416639</v>
+        <v>62.40835974901978</v>
       </c>
       <c r="D46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="E46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="F46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="G46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="H46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="I46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="J46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="K46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="L46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="M46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="N46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="O46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="P46" t="n">
-        <v>43.50547897416639</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.89351385131782</v>
+        <v>113.1487685770613</v>
       </c>
       <c r="R46" t="n">
-        <v>132.6138107855569</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S46" t="n">
-        <v>133.4971554498839</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032655</v>
+        <v>92.91839161032668</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458612</v>
+        <v>83.95483261458619</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X46" t="n">
-        <v>43.50547897416639</v>
+        <v>43.50547897416635</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.50547897416639</v>
+        <v>62.40835974901978</v>
       </c>
     </row>
   </sheetData>
@@ -8769,10 +8769,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901105</v>
       </c>
       <c r="L12" t="n">
-        <v>162.1010486195507</v>
+        <v>201.5002359135912</v>
       </c>
       <c r="M12" t="n">
         <v>201.1586111617382</v>
@@ -8781,10 +8781,10 @@
         <v>186.4889234163774</v>
       </c>
       <c r="O12" t="n">
-        <v>120.640910617809</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594504</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,16 +9012,16 @@
         <v>204.9161881242767</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6137939472723</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4889234163774</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O15" t="n">
-        <v>162.3705883275489</v>
+        <v>120.640910617809</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594504</v>
+        <v>162.3792310547244</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901105</v>
       </c>
       <c r="L18" t="n">
         <v>204.9161881242767</v>
@@ -9252,10 +9252,10 @@
         <v>201.1586111617382</v>
       </c>
       <c r="N18" t="n">
-        <v>143.6737839116514</v>
+        <v>183.0729712056919</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P18" t="n">
         <v>120.6495533449844</v>
@@ -9483,19 +9483,19 @@
         <v>131.9742862901105</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098108</v>
       </c>
       <c r="M21" t="n">
         <v>201.1586111617382</v>
       </c>
       <c r="N21" t="n">
-        <v>101.9441062019115</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O21" t="n">
-        <v>201.7697756215895</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594504</v>
+        <v>201.7784183487649</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901105</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9161881242767</v>
+        <v>204.9161881242771</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617382</v>
+        <v>201.1586111617386</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9441062019115</v>
+        <v>143.6737839116519</v>
       </c>
       <c r="O24" t="n">
-        <v>201.7697756215895</v>
+        <v>205.1857278322754</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594504</v>
+        <v>120.6495533449844</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23261,19 +23261,19 @@
         <v>146.0940556550141</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160625</v>
+        <v>98.54478544337007</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3674703354714</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F11" t="n">
-        <v>199.0878079138487</v>
+        <v>199.0878079138488</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1697333157986</v>
+        <v>130.1697333157987</v>
       </c>
       <c r="H11" t="n">
-        <v>58.24039401035226</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998746</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>116.7683418829873</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996021</v>
+        <v>133.7850220996022</v>
       </c>
       <c r="X11" t="n">
         <v>155.6712725685414</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.02006790960498</v>
+        <v>93.62930847781924</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>169.9757986516686</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0940556550141</v>
+        <v>61.54923844054817</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160625</v>
+        <v>133.6607179160626</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354714</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F14" t="n">
-        <v>161.0494637241418</v>
+        <v>114.5429906993828</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157986</v>
+        <v>214.7145505302646</v>
       </c>
       <c r="H14" t="n">
-        <v>58.24039401035226</v>
+        <v>142.7852112248182</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931284</v>
+        <v>23.12798498931289</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217985</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998746</v>
+        <v>46.03812530998752</v>
       </c>
       <c r="V14" t="n">
-        <v>116.7683418829873</v>
+        <v>97.03111632546035</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996021</v>
+        <v>133.7850220996022</v>
       </c>
       <c r="X14" t="n">
-        <v>71.12645535407545</v>
+        <v>71.12645535407547</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922851</v>
+        <v>178.1741256922852</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65444814870466</v>
+        <v>1.654448148704674</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.443289932012704e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396869.3978294069</v>
+        <v>396869.3978294068</v>
       </c>
       <c r="C2" t="n">
-        <v>396869.3978294067</v>
+        <v>396869.3978294068</v>
       </c>
       <c r="D2" t="n">
         <v>396869.3978294068</v>
       </c>
       <c r="E2" t="n">
-        <v>341995.5400592153</v>
+        <v>341995.5400592154</v>
       </c>
       <c r="F2" t="n">
-        <v>341995.5400592153</v>
+        <v>341995.5400592154</v>
       </c>
       <c r="G2" t="n">
-        <v>397673.3469863405</v>
+        <v>397673.3469863407</v>
       </c>
       <c r="H2" t="n">
         <v>397673.3469863406</v>
       </c>
       <c r="I2" t="n">
+        <v>397673.3469863407</v>
+      </c>
+      <c r="J2" t="n">
+        <v>397673.3469863405</v>
+      </c>
+      <c r="K2" t="n">
+        <v>397673.3469863409</v>
+      </c>
+      <c r="L2" t="n">
+        <v>397673.3469863408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>397673.3469863405</v>
+      </c>
+      <c r="N2" t="n">
         <v>397673.3469863406</v>
-      </c>
-      <c r="J2" t="n">
-        <v>397673.3469863408</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397673.3469863408</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397673.3469863406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>397673.3469863406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>397673.3469863405</v>
       </c>
       <c r="O2" t="n">
         <v>397673.3469863405</v>
@@ -26396,7 +26396,7 @@
         <v>105057.1604753342</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690193</v>
+        <v>18715.71856690184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>382892.3279665353</v>
       </c>
       <c r="F4" t="n">
-        <v>382892.3279665353</v>
+        <v>382892.3279665352</v>
       </c>
       <c r="G4" t="n">
         <v>453420.587080977</v>
@@ -26436,7 +26436,7 @@
         <v>453420.587080977</v>
       </c>
       <c r="I4" t="n">
-        <v>453420.587080977</v>
+        <v>453420.5870809771</v>
       </c>
       <c r="J4" t="n">
         <v>453902.5702029474</v>
@@ -26445,10 +26445,10 @@
         <v>453902.5702029474</v>
       </c>
       <c r="L4" t="n">
-        <v>453902.5702029475</v>
+        <v>453902.5702029474</v>
       </c>
       <c r="M4" t="n">
-        <v>453523.1062128387</v>
+        <v>453523.1062128386</v>
       </c>
       <c r="N4" t="n">
         <v>453523.1062128386</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="F5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862116</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="J5" t="n">
         <v>47598.27644989196</v>
@@ -26497,19 +26497,19 @@
         <v>47598.27644989196</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.27644989196</v>
+        <v>47598.27644989197</v>
       </c>
       <c r="M5" t="n">
         <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125165.8719281085</v>
+        <v>-125170.3383123137</v>
       </c>
       <c r="C6" t="n">
-        <v>-125165.8719281087</v>
+        <v>-125170.3383123137</v>
       </c>
       <c r="D6" t="n">
-        <v>-125165.8719281085</v>
+        <v>-125170.3383123137</v>
       </c>
       <c r="E6" t="n">
-        <v>-337716.1874415771</v>
+        <v>-338025.5085911721</v>
       </c>
       <c r="F6" t="n">
-        <v>-65468.1466859401</v>
+        <v>-65777.46783553506</v>
       </c>
       <c r="G6" t="n">
-        <v>-196415.8223785919</v>
+        <v>-196415.8223785917</v>
       </c>
       <c r="H6" t="n">
-        <v>-91358.66190325757</v>
+        <v>-91358.66190325761</v>
       </c>
       <c r="I6" t="n">
-        <v>-91358.66190325757</v>
+        <v>-91358.66190325751</v>
       </c>
       <c r="J6" t="n">
-        <v>-264977.7338201774</v>
+        <v>-264977.7338201776</v>
       </c>
       <c r="K6" t="n">
-        <v>-103827.4996664985</v>
+        <v>-103827.4996664984</v>
       </c>
       <c r="L6" t="n">
-        <v>-208884.6601418331</v>
+        <v>-208884.6601418328</v>
       </c>
       <c r="M6" t="n">
-        <v>-118990.1940369035</v>
+        <v>-118990.1940369034</v>
       </c>
       <c r="N6" t="n">
         <v>-100274.4754700015</v>
       </c>
       <c r="O6" t="n">
-        <v>-165489.6698506991</v>
+        <v>-165489.669850699</v>
       </c>
       <c r="P6" t="n">
-        <v>-100274.4754700017</v>
+        <v>-100274.4754700016</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>204.1114417261647</v>
       </c>
       <c r="G2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="J2" t="n">
         <v>212.8404435700394</v>
@@ -26716,16 +26716,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075446</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075446</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075446</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
         <v>366.6624870930787</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930787</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930787</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930784</v>
+        <v>366.6624870930787</v>
       </c>
     </row>
   </sheetData>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587175</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862742</v>
+        <v>23.3946482086273</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930782</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587175</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>204.1114417261647</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74779675012007</v>
+        <v>152.7027579678913</v>
       </c>
       <c r="K11" t="n">
-        <v>46.70288162014872</v>
+        <v>5.177760637567197</v>
       </c>
       <c r="L11" t="n">
-        <v>35.42984023518957</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>102.9733343099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,7 +28187,7 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1390224876152</v>
+        <v>25.90135291598529</v>
       </c>
       <c r="J12" t="n">
         <v>51.85943295535309</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606064</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3151594521598</v>
@@ -28220,7 +28220,7 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>136.1090822387895</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U12" t="n">
         <v>204.1114417261647</v>
@@ -28235,7 +28235,7 @@
         <v>204.1114417261647</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261647</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="13">
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5002644978813</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1114417261647</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G13" t="n">
-        <v>204.1114417261647</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H13" t="n">
         <v>165.7758191012691</v>
       </c>
       <c r="I13" t="n">
-        <v>204.1114417261647</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J13" t="n">
         <v>119.8533137078861</v>
@@ -28275,22 +28275,22 @@
         <v>66.39518063773797</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013928</v>
+        <v>115.8843086546052</v>
       </c>
       <c r="M13" t="n">
         <v>24.36038278515816</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68403999776791</v>
+        <v>99.51346902746744</v>
       </c>
       <c r="O13" t="n">
         <v>36.70659427566601</v>
       </c>
       <c r="P13" t="n">
-        <v>142.3625888402768</v>
+        <v>57.81777162581088</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.1114417261647</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R13" t="n">
         <v>203.1842867945871</v>
@@ -28348,7 +28348,7 @@
         <v>204.1114417261647</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74779675012007</v>
+        <v>152.7027579678913</v>
       </c>
       <c r="K14" t="n">
         <v>5.177760637567197</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.74555820502787</v>
+        <v>13.34037157088139</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.9411750131566</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1163990953234</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="S14" t="n">
         <v>204.1114417261647</v>
@@ -28406,19 +28406,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>102.9733343099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>161.7221796313836</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7380872222379</v>
+        <v>64.19327000777197</v>
       </c>
       <c r="H15" t="n">
         <v>125.6725816482287</v>
@@ -28427,7 +28427,7 @@
         <v>107.1390224876152</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.85943295535309</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>204.1114417261647</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261647</v>
+        <v>142.1466165623958</v>
       </c>
     </row>
     <row r="16">
@@ -28485,10 +28485,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
+        <v>166.4571809719723</v>
+      </c>
+      <c r="D16" t="n">
         <v>204.1114417261647</v>
-      </c>
-      <c r="D16" t="n">
-        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>204.1114417261647</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
         <v>165.7758191012691</v>
@@ -28512,22 +28512,22 @@
         <v>66.39518063773797</v>
       </c>
       <c r="L16" t="n">
-        <v>94.07989208031421</v>
+        <v>31.33949144013928</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36038278515816</v>
+        <v>108.9051999996241</v>
       </c>
       <c r="N16" t="n">
-        <v>100.2288572122338</v>
+        <v>85.37320166065446</v>
       </c>
       <c r="O16" t="n">
         <v>36.70659427566601</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81777162581088</v>
+        <v>142.3625888402769</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.1114417261647</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
         <v>203.1842867945871</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I17" t="n">
         <v>240.5401725389594</v>
@@ -28588,7 +28588,7 @@
         <v>75.74779675012007</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567197</v>
+        <v>89.72257785203317</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088139</v>
+        <v>15.74555820502793</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869062</v>
       </c>
       <c r="R17" t="n">
-        <v>196.5215857294699</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S17" t="n">
         <v>227.2394267154776</v>
@@ -28618,19 +28618,19 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>334.6943842506182</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="18">
@@ -28649,22 +28649,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>87.28275462533371</v>
       </c>
       <c r="F18" t="n">
-        <v>74.2786219054624</v>
+        <v>90.39389844103275</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H18" t="n">
-        <v>103.0649396010803</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I18" t="n">
         <v>107.1390224876152</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535309</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606064</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.77034223769389</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008586</v>
       </c>
       <c r="T18" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U18" t="n">
-        <v>152.6828235158181</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>182.1597663625456</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5401725389594</v>
+        <v>242.9453591731059</v>
       </c>
       <c r="J20" t="n">
         <v>75.74779675012007</v>
@@ -28852,7 +28852,7 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T20" t="n">
-        <v>224.8177469924911</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
         <v>334.6943842506182</v>
@@ -28861,13 +28861,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>170.9480438008235</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,10 +28889,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>142.2533313963858</v>
       </c>
       <c r="G21" t="n">
-        <v>64.19327000777199</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H21" t="n">
         <v>125.6725816482287</v>
@@ -28931,22 +28931,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
-        <v>130.3998372903866</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U21" t="n">
-        <v>152.6828235158181</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009363</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>132.7680972250046</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="22">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
         <v>240.5401725389594</v>
@@ -29086,25 +29086,25 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2394267154776</v>
+        <v>299.6363218529113</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>334.6943842506182</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>323.2849702432985</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="W23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="24">
@@ -29117,25 +29117,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>102.9733343099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>74.62749786211261</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>87.28275462533374</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7380872222379</v>
+        <v>64.19327000777157</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6725816482287</v>
+        <v>41.12776443376234</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1390224876152</v>
+        <v>38.70948180871922</v>
       </c>
       <c r="J24" t="n">
         <v>51.85943295535309</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606064</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.3151594521598</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>142.8458394369691</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195592</v>
       </c>
     </row>
     <row r="25">
@@ -29314,7 +29314,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8404435700395</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q26" t="n">
         <v>212.8404435700394</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.68464814964761</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7380872222379</v>
@@ -29375,7 +29375,7 @@
         <v>107.1390224876152</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85943295535309</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,16 +29396,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606064</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4697362153245</v>
+        <v>40.15841835003795</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.8404435700394</v>
@@ -29414,7 +29414,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8404435700394</v>
@@ -29430,22 +29430,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>193.011630194423</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>212.8404435700394</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>212.8404435700394</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8404435700394</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H28" t="n">
         <v>165.7758191012691</v>
@@ -29472,13 +29472,13 @@
         <v>36.70659427566601</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81777162581088</v>
+        <v>163.9090879289406</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7594634122123</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R28" t="n">
-        <v>203.1842867945871</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S28" t="n">
         <v>212.8404435700394</v>
@@ -29548,7 +29548,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700402</v>
       </c>
       <c r="P29" t="n">
         <v>212.8404435700394</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,19 +29597,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J30" t="n">
         <v>51.85943295535309</v>
@@ -29642,7 +29642,7 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8404435700394</v>
+        <v>11.18537927611015</v>
       </c>
       <c r="U30" t="n">
         <v>212.8404435700394</v>
@@ -29657,7 +29657,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="Y30" t="n">
-        <v>192.4917991307235</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="31">
@@ -29703,19 +29703,19 @@
         <v>24.36038278515816</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68403999776791</v>
+        <v>76.60216684487551</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70659427566601</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P31" t="n">
-        <v>199.132610834012</v>
+        <v>57.81777162581088</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8404435700394</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R31" t="n">
-        <v>212.8404435700394</v>
+        <v>203.1842867945871</v>
       </c>
       <c r="S31" t="n">
         <v>212.8404435700394</v>
@@ -29776,7 +29776,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700398</v>
       </c>
       <c r="M32" t="n">
         <v>212.8404435700394</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>139.3697810932196</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29876,13 +29876,13 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8404435700394</v>
+        <v>195.1018946411182</v>
       </c>
       <c r="V33" t="n">
         <v>212.8404435700394</v>
@@ -29894,7 +29894,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="34">
@@ -29907,31 +29907,31 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>190.773500084717</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8404435700394</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8404435700394</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J34" t="n">
-        <v>212.8404435700394</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K34" t="n">
-        <v>115.2436142114159</v>
+        <v>66.39518063773797</v>
       </c>
       <c r="L34" t="n">
         <v>31.33949144013928</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2350917786669</v>
+        <v>140.5719283276652</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P35" t="n">
-        <v>13.34037157088139</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q35" t="n">
-        <v>192.1684459236376</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>107.1390224876152</v>
@@ -30119,19 +30119,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>236.2350917786669</v>
+        <v>129.5373581847649</v>
       </c>
       <c r="V36" t="n">
-        <v>131.4891454713913</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W36" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39518063773797</v>
+        <v>184.1083791668836</v>
       </c>
       <c r="L37" t="n">
         <v>31.33949144013928</v>
@@ -30183,7 +30183,7 @@
         <v>36.70659427566601</v>
       </c>
       <c r="P37" t="n">
-        <v>175.5309701549562</v>
+        <v>57.81777162581088</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7594634122123</v>
@@ -30198,13 +30198,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>149.5675933908524</v>
+        <v>94.29426321231767</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786669</v>
+        <v>88.39635779869062</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786669</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="39">
@@ -30302,13 +30302,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>6.037534323606064</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.4697362153245</v>
@@ -30356,19 +30356,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W39" t="n">
-        <v>236.2350917786669</v>
+        <v>143.102858546562</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>196.1103017373476</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,10 +30396,10 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H40" t="n">
-        <v>236.2350917786669</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I40" t="n">
-        <v>211.9425811849079</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J40" t="n">
         <v>119.8533137078861</v>
@@ -30417,7 +30417,7 @@
         <v>15.68403999776791</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70659427566601</v>
+        <v>154.4197928048115</v>
       </c>
       <c r="P40" t="n">
         <v>57.81777162581088</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>183.1727808604492</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5719283276628</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786669</v>
+        <v>13.34037157088139</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786669</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786669</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="42">
@@ -30539,19 +30539,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.6725816482287</v>
@@ -30560,7 +30560,7 @@
         <v>107.1390224876152</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85943295535309</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>6.037534323606064</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3151594521598</v>
+        <v>7.777569249908794</v>
       </c>
       <c r="S42" t="n">
-        <v>146.6175724975595</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T42" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W42" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>236.2350917786669</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30633,10 +30633,10 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7758191012691</v>
+        <v>211.9425811849083</v>
       </c>
       <c r="I43" t="n">
-        <v>164.6886553331604</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J43" t="n">
         <v>119.8533137078861</v>
@@ -30663,28 +30663,28 @@
         <v>126.7594634122123</v>
       </c>
       <c r="R43" t="n">
-        <v>215.4807126874913</v>
+        <v>203.1842867945871</v>
       </c>
       <c r="S43" t="n">
-        <v>236.2350917786669</v>
+        <v>235.3428244409628</v>
       </c>
       <c r="T43" t="n">
-        <v>236.2350917786669</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X43" t="n">
-        <v>236.2350917786669</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>236.2350917786669</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786669</v>
+        <v>205.5088174945195</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5719283276629</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786669</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786669</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786669</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="45">
@@ -30791,13 +30791,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1390224876152</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.85943295535309</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606064</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
@@ -30827,16 +30827,16 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
-        <v>147.6103290292959</v>
+        <v>108.2469209109505</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V45" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W45" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>196.4355884608536</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30897,31 +30897,31 @@
         <v>57.81777162581088</v>
       </c>
       <c r="Q46" t="n">
-        <v>183.717074399234</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R46" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S46" t="n">
-        <v>236.2350917786669</v>
+        <v>235.3428244409628</v>
       </c>
       <c r="T46" t="n">
-        <v>236.2350917786669</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X46" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
   </sheetData>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>76.95496121777126</v>
       </c>
       <c r="K11" t="n">
-        <v>41.52512098258153</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>84.54481721446594</v>
+        <v>49.11497697927636</v>
       </c>
       <c r="M11" t="n">
         <v>83.81751137732792</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841311</v>
+        <v>9.995042630841255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404049</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>41.72967770973994</v>
+        <v>81.12886500378046</v>
       </c>
       <c r="M12" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>26.49452106119659</v>
       </c>
       <c r="C13" t="n">
-        <v>2.043083525908955</v>
+        <v>37.65426075419234</v>
       </c>
       <c r="D13" t="n">
-        <v>58.92879147545403</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.18455950771803</v>
       </c>
       <c r="G13" t="n">
-        <v>35.41613064448643</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.42278639300434</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>83.82942902969953</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.3519783139524</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>76.95496121777126</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>36.61860963435585</v>
       </c>
       <c r="P14" t="n">
-        <v>2.405186634146473</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.995042630841255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>39.39918729404049</v>
       </c>
       <c r="L15" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N15" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>41.72967770973995</v>
-      </c>
-      <c r="P15" t="n">
-        <v>84.54481721446594</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,10 +35781,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.65426075419239</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.92879147545398</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.41613064448643</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>62.74040064017493</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N16" t="n">
-        <v>84.54481721446594</v>
+        <v>69.68916166288655</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.3519783139524</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="L17" t="n">
         <v>49.11497697927636</v>
@@ -35899,13 +35899,13 @@
         <v>36.61860963435585</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.40518663414653</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.405186634146473</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404049</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="M18" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N18" t="n">
-        <v>41.72967770973995</v>
+        <v>81.12886500378046</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.405186634146574</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.405186634146473</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>84.54481721446597</v>
       </c>
       <c r="O21" t="n">
+        <v>84.54481721446597</v>
+      </c>
+      <c r="P21" t="n">
         <v>81.12886500378046</v>
-      </c>
-      <c r="P21" t="n">
-        <v>84.54481721446594</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>72.39689513743372</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2.405186634146473</v>
+        <v>14.55310871118036</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404049</v>
       </c>
       <c r="L24" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446594</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.72967770974041</v>
       </c>
       <c r="O24" t="n">
-        <v>81.12886500378046</v>
+        <v>84.54481721446636</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446594</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36726,22 +36726,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.22352290507135</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.82897994371228</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.16430235781445</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>73.91356135159279</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.14513248836113</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>106.0913163031297</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.0809801578271</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.6561567754524</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324722</v>
       </c>
       <c r="L29" t="n">
         <v>261.9554205493158</v>
@@ -36844,16 +36844,16 @@
         <v>291.1026583776451</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043953</v>
+        <v>249.459053204396</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5000719991581</v>
+        <v>199.500071999158</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4440857713488</v>
       </c>
       <c r="R29" t="n">
-        <v>18.724044474716</v>
+        <v>18.72404447471595</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>60.91812684710759</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P31" t="n">
-        <v>141.3148392082011</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.0809801578271</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.6561567754524</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493162</v>
       </c>
       <c r="M32" t="n">
         <v>296.6579549473673</v>
@@ -37203,31 +37203,31 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.31631911274463</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65779331932873</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.16430235781445</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.91356135159279</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06462446877036</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15178823687904</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.98712986215335</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>48.8484335736779</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579432</v>
+        <v>49.11497697927636</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559948</v>
+        <v>83.81751137732792</v>
       </c>
       <c r="N35" t="n">
-        <v>314.4973065862725</v>
+        <v>218.8341431352709</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435585</v>
+        <v>272.8537014130226</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q35" t="n">
-        <v>103.772088124947</v>
+        <v>147.8387339799761</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.11869268334331</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.995665063189158</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.82253142032215</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>117.7131985291457</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>117.7131985291453</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K38" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L38" t="n">
         <v>285.3500687579432</v>
       </c>
       <c r="M38" t="n">
-        <v>83.81751137732792</v>
+        <v>320.0526031559947</v>
       </c>
       <c r="N38" t="n">
         <v>314.4973065862725</v>
@@ -37558,19 +37558,19 @@
         <v>36.61860963435585</v>
       </c>
       <c r="P38" t="n">
-        <v>136.227221819971</v>
+        <v>80.95389164143629</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799762</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334343</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.995665063189215</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032226</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>70.45927267739778</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.25392585174755</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>117.7131985291455</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927636</v>
+        <v>232.2877578397256</v>
       </c>
       <c r="M41" t="n">
-        <v>224.3894397049907</v>
+        <v>83.81751137732792</v>
       </c>
       <c r="N41" t="n">
-        <v>78.2622148076057</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O41" t="n">
-        <v>272.8537014130227</v>
+        <v>272.8537014130226</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077855</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334345</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.9956650631893</v>
+        <v>8.995665063189186</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032229</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.61817111369879</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>46.1667620836392</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.54643644550637</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.29642589290422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8922673377041233</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.49687884991527</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>14.31563637042436</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.09381896449847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4872950285468</v>
+        <v>129.7610207443995</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3500687579432</v>
+        <v>49.11497697927636</v>
       </c>
       <c r="M44" t="n">
-        <v>224.3894397049908</v>
+        <v>83.81751137732792</v>
       </c>
       <c r="N44" t="n">
-        <v>78.2622148076057</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O44" t="n">
-        <v>36.61860963435585</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334345</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.9956650631893</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032229</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>51.25293821014291</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.95761098702165</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>33.05080498407985</v>
+        <v>33.05080498407979</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8922673377041233</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.49687884991527</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14.31563637042436</v>
+        <v>14.3156363704243</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>19.09381896449841</v>
       </c>
     </row>
   </sheetData>
